--- a/CompCars_Original/ResNet/wronglyClassifications/Data_Full_gradCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/ResNet/wronglyClassifications/Data_Full_gradCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2219194031031934</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2211339077791319</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2900352838035524</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.297974408900157</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.222009911392002</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006806044373858532</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006807896813950272</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006645406131430133</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006584548673836555</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006805350581497164</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01495318657512383</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01494766691089157</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.01543183587937018</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.01855213518208075</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01498875887648228</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004766413912031211</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004769180525793175</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004526501175212737</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004396365870960953</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004764930332473255</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005136159929754431</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005140147186379684</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004790396577271268</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004628285354082022</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005134311815607215</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006469493272063984</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006473121910034768</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006154828291190313</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.005923300214593547</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006466853786003639</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006775173181008207</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006781179921715745</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.006254286014783749</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.00609830589693659</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006773394963209296</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.3017020994991715</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.3020230734664892</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.273868166188554</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2685396924315369</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.3016413533796886</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1491447472621009</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1493806559436192</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1286874292943912</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1313262218147251</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1491748302489074</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002538274891617857</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002540536745198656</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002342133496561766</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002228063711349995</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002536974463555741</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02299154253470513</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02301128666174659</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.02127938899172224</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.02026541343943244</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.02297998292441878</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.00242723594942169</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002430607414474557</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002134872259541076</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002045254223684043</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002426214278271143</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01814561577724098</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01816681007781086</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01630770738374415</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01525427042053426</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01813360629562336</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2251117279708274</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2253743343665806</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.202339261507501</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1917235094668459</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2249907053719984</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003371874176780491</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003373923402114992</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.003194171287740905</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.003240797055275519</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003372405723819068</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002150726685720348</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002152565374809036</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.001991280890470325</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.001782420192135077</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002148345614232538</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.000240464556799032</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.000241517129526835</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001491884967650008</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001461688695232595</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002404301321878608</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.00532796985452901</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005231400834605517</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01370215572039457</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01266943912661304</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005316196591028314</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2.18463168277382e-05</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2.01873745857144e-05</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.0001657049858548161</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>4.244549036373622e-05</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2.044112344930543e-05</v>
       </c>
     </row>
